--- a/publikacje/Zeszyt1.xlsx
+++ b/publikacje/Zeszyt1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>posx1</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -87,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -104,6 +123,2777 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62702077865266836"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$23:$H$338</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="316"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6E-9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1000000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2000000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2999999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.9E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3000000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4000000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4999999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1E-9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.5000000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.6000000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.6999999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.7999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.8999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.0999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.2E-9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.3E-9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.4000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.4999999999999993E-9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.6000000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.6999999999999995E-9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.8000000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.8999999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0000000000000005E-9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.2000000000000006E-9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.2999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.4000000000000008E-9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.5999999999999993E-9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.7000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.7999999999999994E-9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.9000000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.9999999999999995E-9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.1000000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.1999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.3000000000000006E-9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.3999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.5000000000000007E-9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.5999999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.6999999999999992E-9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.8000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.8999999999999993E-9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0099999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.02E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.03E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.04E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.05E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0600000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.07E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0800000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.09E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0999999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.11E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1199999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.13E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.14E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.15E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.16E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1700000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.18E-8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1900000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2E-8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2100000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.22E-8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2299999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.24E-8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2499999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.26E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.27E-8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.28E-8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.29E-8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.31E-8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3200000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.33E-8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3399999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.35E-8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3599999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.37E-8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.3799999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.39E-8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4E-8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4100000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.42E-8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4300000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.44E-8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4500000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.46E-8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4699999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.48E-8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.4899999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4999999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.51E-8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.52E-8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5300000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.5399999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.55E-8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5600000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5700000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5799999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.59E-8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.6000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6099999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.6199999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.63E-8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.6400000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.6499999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.66E-8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.6700000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.6800000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.6899999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.7E-8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.7100000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.7199999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.7299999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.74E-8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.7500000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.7599999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.77E-8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7800000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7900000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.7999999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.81E-8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8200000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.8299999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.8399999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.85E-8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.8600000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.8699999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.88E-8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.89E-8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.9000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.9099999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.92E-8</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.9300000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.9399999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.9499999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.96E-8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.9700000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.9799999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.99E-8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.0100000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.0199999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.03E-8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.0400000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.0500000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0599999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.07E-8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.0800000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.0899999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.0999999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.11E-8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.1200000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.1299999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.14E-8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.1500000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.1600000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.1699999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.18E-8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.1900000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.1999999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.2099999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.22E-8</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.2300000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.2399999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.25E-8</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.26000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.2700000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.2799999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.29E-8</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.3000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.3100000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.3200000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.3300000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.34000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.3500000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.3600000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.37000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.3800000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.3900000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.4000000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.41000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.4200000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.4300000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.4400000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.45000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.4600000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.4700000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.48000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.4900000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.5000000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.5100000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.52000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.5300000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.5400000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.5500000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.56000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.5700000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.5800000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.59000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.60000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.6100000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.6200000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.63000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.6400000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.6500000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.6600000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.67000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.6800000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.6900000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.7000000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.71000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.7200000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.7300000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.74000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.7500000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.7600000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.7700000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.78000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.7900000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.8000000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.8100000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.82000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.8300000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.8400000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.85000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.8600000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.8700000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.8800000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.89000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.9000000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.9100000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.9200000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.93000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.9400000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.9500000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.96000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.9700000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.9800000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.9900000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.0000000000000103E-8</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.0100000000000097E-8</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.0200000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.0300000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.04000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.0500000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.0600000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.0700000000000103E-8</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.0800000000000097E-8</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.0900000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.1000000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.11000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.1200000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.1300000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.1400000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.1500000000000097E-8</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.1600000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.1700000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.1800000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.19000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.2000000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.2100000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3.2200000000000103E-8</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.2300000000000097E-8</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.2400000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.2500000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.26000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.2700000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.2800000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.2900000000000103E-8</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.3000000000000097E-8</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.3100000000000098E-8</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.3200000000000099E-8</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3.33000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.3400000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3.3500000000000101E-8</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.3600000000000102E-8</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.3700000000000203E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$23:$I$338</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="316"/>
+                <c:pt idx="0">
+                  <c:v>4.0844469562984989E-101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2250342664439616E-101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.572187750903534E-101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0705303043378376E-101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6809563168504358E-101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3754605369565112E-101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1337260548061671E-101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4083615698630383E-102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8571667460016332E-102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6006076321039826E-102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5757703698632282E-102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7345743747230284E-102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.039963524521568E-102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4631510285297496E-102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.981606650854751E-102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5775725078225781E-102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2369589863571916E-102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.948516600840117E-102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7032099426054549E-102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4937408842931842E-102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3141828945864524E-102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1596986927159317E-102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0263208619723606E-102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1078035047936634E-103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1037163243347586E-103</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2284610911083315E-103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4632739189643405E-103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.792436368433613E-103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.2027323849392064E-103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6830104441717985E-103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2238289617256255E-103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8171679144400975E-103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4561933539289072E-103</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.135064357764257E-103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8487741739809109E-103</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5930190281449337E-103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3640893971437031E-103</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1587795986009428E-103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9743123660966926E-103</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8082757287714846E-103</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.658570027909286E-103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5233633122208187E-103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4010536804409213E-103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2902374020188953E-103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1896818576946029E-103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0983025121917915E-103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0151432693860849E-103</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.3935967261790728E-104</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7020450443080743E-104</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.0701541497017527E-104</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.4920426978785242E-104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9624795842390184E-104</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.4768044691868853E-104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0308589198756937E-104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6209266328503821E-104</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2436814405650107E-104</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8961420038608524E-104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.5756322589482221E-104</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2797468269539261E-104</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0063207112748231E-104</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7534027066473233E-104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5192320270943655E-104</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3022177302965005E-104</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.100920575591844E-104</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9140370034458781E-104</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7403849673279513E-104</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5788913856515527E-104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.428581012812474E-104</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2885665551875713E-104</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1580398809708233E-104</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0362641924720009E-104</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.922567046496834E-104</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8163341230678492E-104</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7170036553807538E-104</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6240614448125104E-104</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5370363942540913E-104</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4554965012414242E-104</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3790452594788627E-104</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3073184235434252E-104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2399810969528589E-104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1767251084848002E-104</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1172666457468889E-104</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0613441185888496E-104</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0087162280988441E-104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.5916021968599258E-105</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.1247030117443518E-105</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6845620896756348E-105</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.2694190721584817E-105</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.8776440657537501E-105</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.50772690604109E-105</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1582673913079922E-105</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8279663907233168E-105</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.515617741841586E-105</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.2201008612334502E-105</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.9403739999788419E-105</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6754680828061587E-105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.4244810759428147E-105</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1865728343082823E-105</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.9609603836750108E-105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.7469135978411228E-105</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.5437512348332159E-105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.3508372996858257E-105</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.1675777045236293E-105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.99341719949284E-105</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.8278365506406488E-105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.6703499431136831E-105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5205025900934534E-105</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.3778685297265977E-105</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.2420485939574567E-105</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.1126685346608429E-105</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.9893772938120222E-105</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.8718454056393012E-105</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.7597635197926921E-105</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6528410355504783E-105</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5508048379698621E-105</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.4533981276970674E-105</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.3603793368756216E-105</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.2715211242547745E-105</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.1866094431950543E-105</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1054426768106374E-105</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.0278308349809066E-105</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.9535948084088769E-105</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8825656753121027E-105</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8145840566995666E-105</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7494995165249652E-105</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.6871700033129534E-105</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6274613301342724E-105</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.5702466900590391E-105</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.515406204451576E-105</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4628265016797725E-105</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4124003240083423E-105</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3640261606205534E-105</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3176079048750783E-105</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.2730545340547545E-105</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.230279809997275E-105</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1892019991241224E-105</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1497436104976286E-105</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.1118311506401288E-105</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0753948939469048E-105</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.0403686676102589E-105</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.0066896500560836E-105</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.7429818196635601E-106</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.4313758903110392E-106</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.1315401563632355E-106</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.8429626875135477E-106</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.5651567133415813E-106</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.2976592462178392E-106</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.040029787182145E-106</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.7918491093494686E-106</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.5527181137749535E-106</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.3222567530699029E-106</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.1001030183967648E-106</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.8859119857702149E-106</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.679354917877255E-106</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.4801184178929254E-106</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.2879036320044216E-106</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.1024254975904473E-106</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.9234120341989022E-106</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.7506036746687381E-106</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.5837526339164625E-106</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.4226223130696649E-106</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.2669867367937082E-106</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.1166300217879005E-106</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.9713458745728683E-106</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.8309371168049446E-106</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.6952152364703454E-106</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.5639999634224987E-106</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.4371188678194697E-106</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.3144069801141098E-106</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.1957064313337513E-106</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.0808661124690956E-106</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.9697413518626741E-106</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.8621936095589752E-106</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.7580901876446026E-106</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.6573039556629171E-106</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.5597130902496504E-106</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.4652008281830585E-106</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.3736552320966526E-106</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.2849689681436386E-106</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.1990390949492523E-106</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.1157668632236757E-106</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.0350575254503788E-106</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9568201550936565E-106</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.8809674748084282E-106</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.8074156931605905E-106</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.736084349399379E-106</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.6668961658483633E-106</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.5997769075043091E-106</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.5346552484632092E-106</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.471462644807874E-106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.4101332136184421E-106</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.3506036177815224E-106</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.2928129562963295E-106</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.2367026597896155E-106</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.1822163909717383E-106</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.1292999497755264E-106</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.0779011829408822E-106</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.027969897814933E-106</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.9794577801537643E-106</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.9323183157241706E-106</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.8865067155115403E-106</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.8419798443545734E-106</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.798696152833827E-106</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.7566156122535707E-106</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7156996525617288E-106</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.6759111030651817E-106</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.6372141358004126E-106</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.5995742114316938E-106</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.5629580275525089E-106</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.5273334692739706E-106</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.4926695619897512E-106</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.4589364262120798E-106</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.4261052343811169E-106</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.394148169551993E-106</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.3630383858714119E-106</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.3327499707581981E-106</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.3032579087086538E-106</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.2745380466496976E-106</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.2465670607672392E-106</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.2193224247421853E-106</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.1927823793278293E-106</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.16692590320753E-106</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.141732685072788E-106</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.1171830968673688E-106</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.0932581681426091E-106</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.0699395614749771E-106</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.047209548896604E-106</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.0250509892940438E-106</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.0034473067315076E-106</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>9.8238246965704766E-107</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>9.6184097095254755E-107</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9.4180780879051212E-107</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9.2226846826091638E-107</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>9.0320890373590278E-107</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8.8461552193818503E-107</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.6647516568382811E-107</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8.4877509826928002E-107</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.3150298847518473E-107</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>8.1464689616004682E-107</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7.9819525841864058E-107</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.821368762807172E-107</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7.664609019273511E-107</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7.5115682640229968E-107</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7.3621446779812488E-107</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7.216239598966168E-107</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7.0737574124428416E-107</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6.9346054464534479E-107</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>6.7986938705388795E-107</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>6.6659355984956471E-107</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6.5362461948002209E-107</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.40954378455711E-107</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>6.2857489668204355E-107</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.1647847311548318E-107</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6.0465763772978131E-107</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5.9310514378057498E-107</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5.8181396035533284E-107</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.7077726519797123E-107</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5.5998843779640964E-107</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5.4944105272288355E-107</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5.3912887321691812E-107</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.2904584500116593E-107</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5.1918609032088381E-107</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.0954390219827028E-107</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.0011373889326862E-107</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4.9089021856243448E-107</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4.8186811410858089E-107</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.7304234821320767E-107</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4.6440798854520657E-107</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.5596024313843989E-107</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4.4769445593210916E-107</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4.3960610246751932E-107</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.3169078573505589E-107</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.2394423216593931E-107</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.163622877630935E-107</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4.0894091436572526E-107</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.0167618604292827E-107</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.9456428561090877E-107</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.876015012697946E-107</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.8078422335501426E-107</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.7410894119935451E-107</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.6757224010126276E-107</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.6117079839587568E-107</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.5490138462443404E-107</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.4876085479891183E-107</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.4274614975822449E-107</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.3685429261252749E-107</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.3108238627254431E-107</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.2542761106085584E-107</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.1988722240202308E-107</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.1445854858889541E-107</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.0913898862209408E-107</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.03926010120343E-107</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.9881714729898127E-107</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.9380999901405779E-107</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.8890222687003854E-107</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.8409155338846397E-107</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.7937576023580039E-107</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.7475268650805572E-107</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.7022022707037088E-107</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.6577633094965409E-107</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.6141899977821893E-107</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2.5714628628698886E-107</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2.5295629284617563E-107</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2.4884717005203162E-107</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2.4481711535808048E-107</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2.4086437174912761E-107</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.3698722645678025E-107</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.331840097149337E-107</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2.2945309355390755E-107</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2.257928906319134E-107</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.2220185310263865E-107</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.1867847151756797E-107</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2.1522127376211702E-107</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.1182882402421365E-107</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.0849972179437785E-107</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.0523260089622279E-107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="246392944"/>
+        <c:axId val="246394512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="246392944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246394512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="246394512"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246392944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A1:Q338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,9 +3170,20 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="e">
+        <f>(($B$10/H1)^$B$11 + ($B$12/H1)^$B$13)*COS($B$14*H1+$B$15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -400,8 +3201,19 @@
         <f>(B2-D2)^2</f>
         <v>1.0000000000000001E-18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(($B$10/H2)^$B$11 + ($B$12/H2)^$B$13)*COS($B$14*H2+$B$15)</f>
+        <v>5.5661562083362827E-94</v>
+      </c>
+      <c r="J2">
+        <f>COS($B$14*H2+$B$15)</f>
+        <v>0.85577997734656075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,8 +3231,19 @@
         <f t="shared" ref="F3:F4" si="0">(B3-D3)^2</f>
         <v>1.0000000000000001E-18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I2:I65" si="1">(($B$10/H3)^$B$11 + ($B$12/H3)^$B$13)*COS($B$14*H3+$B$15)</f>
+        <v>1.3986378872782667E-95</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="2">COS($B$14*H3+$B$15)</f>
+        <v>0.85577997717503307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -439,8 +3262,32 @@
         <f t="shared" si="0"/>
         <v>8.0999999999999997E-17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>3E-10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.6212611363909624E-96</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.85577997700350494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3.514432340954517E-97</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.85577997683197715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -455,8 +3302,19 @@
         <f>SQRT(F2+F3+F4)</f>
         <v>9.110433579144298E-9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.0735406440837528E-97</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.85577997666044947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -464,8 +3322,3949 @@
         <f>2*10^(-26)</f>
         <v>1.9999999999999998E-26</v>
       </c>
+      <c r="H7" s="1">
+        <v>6E-10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.073829703563052E-98</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.85577997648892179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>6.9999999999999996E-10</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.7955947729427551E-98</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.85577997631739366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>8.8309023990699877E-99</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.85577997614586598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>0.0000000002230762 *1.602176565E-19</f>
+        <v>3.5740745984925299E-29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8.9999999999999999E-10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.7222671658542258E-99</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.8557799759743383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7.9039989999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2.6975430816982492E-99</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.85577997580281062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>0.0000000018244497 *1.602176565E-19</f>
+        <v>2.9230905533612806E-28</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.0999999999999999E-9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.6254864847991968E-99</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.85577997563128294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.3145870000000004</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.2E-9</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.0236530112969558E-99</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.85577997545975482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-3.315572</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.3000000000000001E-9</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>6.6896982747199986E-100</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.85577997528822713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-6.8269250000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.3999999999999999E-9</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.5118871670455573E-100</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.85577997511669945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>1.5E-9</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3.1269149780446229E-100</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.85577997494517177</v>
+      </c>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>1.6000000000000001E-9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>2.2189881481171453E-100</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.85577997477364354</v>
+      </c>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>1.6999999999999999E-9</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.607783424867825E-100</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.85577997460211586</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>1.8E-9</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.1865893651227001E-100</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.85577997443058818</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>1.9000000000000001E-9</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>8.9024209253030158E-101</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.85577997425906049</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>6.7782609912600836E-101</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.85577997408753281</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>2.1000000000000002E-9</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>5.2300508755342541E-101</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.85577997391600469</v>
+      </c>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>2.1999999999999998E-9</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>4.0844469562984989E-101</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.85577997374447701</v>
+      </c>
+    </row>
+    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>2.2999999999999999E-9</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>3.2250342664439616E-101</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.85577997357294933</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>2.4E-9</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>2.572187750903534E-101</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0.85577997340142165</v>
+      </c>
+    </row>
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>2.0705303043378376E-101</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.85577997322989352</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>2.6000000000000001E-9</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1.6809563168504358E-101</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.85577997305836584</v>
+      </c>
+    </row>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1.3754605369565112E-101</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.85577997288683805</v>
+      </c>
+      <c r="Q28">
+        <f>6022.3*1.3806488E-23</f>
+        <v>8.3146812682400005E-20</v>
+      </c>
+    </row>
+    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>2.7999999999999998E-9</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1.1337260548061671E-101</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0.85577997271531037</v>
+      </c>
+    </row>
+    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>2.8999999999999999E-9</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>9.4083615698630383E-102</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0.85577997254378269</v>
+      </c>
+    </row>
+    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>3E-9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>7.8571667460016332E-102</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0.85577997237225456</v>
+      </c>
+    </row>
+    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>3.1E-9</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>6.6006076321039826E-102</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.85577997220072688</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>5.5757703698632282E-102</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0.8557799720291992</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>3.3000000000000002E-9</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>4.7345743747230284E-102</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0.85577997185767152</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>3.3999999999999998E-9</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>4.039963524521568E-102</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0.85577997168614384</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>3.4999999999999999E-9</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>3.4631510285297496E-102</v>
+      </c>
+      <c r="J36">
+        <f>COS($B$14*H36+$B$15)</f>
+        <v>0.85577997151461571</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>3.6E-9</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>2.981606650854751E-102</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>0.85577997134308803</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>3.7E-9</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>2.5775725078225781E-102</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0.85577997117156024</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>3.8000000000000001E-9</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>2.2369589863571916E-102</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0.85577997100003256</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>3.9000000000000002E-9</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1.948516600840117E-102</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0.85577997082850443</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1.7032099426054549E-102</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>0.85577997065697675</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>4.1000000000000003E-9</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1.4937408842931842E-102</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0.85577997048544907</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>4.2000000000000004E-9</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>1.3141828945864524E-102</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>0.85577997031392139</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>4.2999999999999996E-9</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>1.1596986927159317E-102</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0.85577997014239371</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>4.3999999999999997E-9</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1.0263208619723606E-102</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0.85577996997086558</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>4.4999999999999998E-9</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>9.1078035047936634E-103</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>0.8557799697993379</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>4.5999999999999998E-9</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>8.1037163243347586E-103</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>0.85577996962781011</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>4.6999999999999999E-9</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>7.2284610911083315E-103</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0.85577996945628243</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>4.8E-9</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>6.4632739189643405E-103</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>0.8557799692847543</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>4.9E-9</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>5.792436368433613E-103</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0.85577996911322662</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>5.2027323849392064E-103</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>0.85577996894169894</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>5.1000000000000002E-9</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>4.6830104441717985E-103</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>0.85577996877017126</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>5.2000000000000002E-9</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>4.2238289617256255E-103</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>0.85577996859864358</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>5.3000000000000003E-9</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>3.8171679144400975E-103</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>0.85577996842711546</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>5.4000000000000004E-9</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>3.4561933539289072E-103</v>
+      </c>
+      <c r="J55">
+        <f>COS($B$14*H55+$B$15)</f>
+        <v>0.85577996825558778</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>5.4999999999999996E-9</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>3.135064357764257E-103</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>0.85577996808405998</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>5.5999999999999997E-9</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>2.8487741739809109E-103</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.8557799679125323</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>5.6999999999999998E-9</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>2.5930190281449337E-103</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>0.85577996774100418</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>5.7999999999999998E-9</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>2.3640893971437031E-103</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>0.8557799675694765</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>5.8999999999999999E-9</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>2.1587795986009428E-103</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>0.85577996739794882</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>6E-9</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>1.9743123660966926E-103</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>0.85577996722642113</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>6.1E-9</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>1.8082757287714846E-103</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>0.85577996705489345</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>6.2000000000000001E-9</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>1.658570027909286E-103</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>0.85577996688336522</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>6.3000000000000002E-9</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>1.5233633122208187E-103</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>0.85577996671183754</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>6.4000000000000002E-9</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>1.4010536804409213E-103</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>0.85577996654030986</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>6.5000000000000003E-9</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I129" si="3">(($B$10/H66)^$B$11 + ($B$12/H66)^$B$13)*COS($B$14*H66+$B$15)</f>
+        <v>1.2902374020188953E-103</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>0.85577996636878217</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <v>6.6000000000000004E-9</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>1.1896818576946029E-103</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J70" si="4">COS($B$14*H67+$B$15)</f>
+        <v>0.85577996619725405</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>6.6999999999999996E-9</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>1.0983025121917915E-103</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>0.85577996602572637</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>6.7999999999999997E-9</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>1.0151432693860849E-103</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>0.85577996585419869</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>6.8999999999999997E-9</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>9.3935967261790728E-104</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="4"/>
+        <v>0.85577996568267101</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>8.7020450443080743E-104</v>
+      </c>
+      <c r="J71">
+        <f>COS($B$14*H71+$B$15)</f>
+        <v>0.85577996551114333</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>7.0999999999999999E-9</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>8.0701541497017527E-104</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J86" si="5">COS($B$14*H72+$B$15)</f>
+        <v>0.85577996533961509</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>7.2E-9</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>7.4920426978785242E-104</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>0.85577996516808741</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>7.3E-9</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>6.9624795842390184E-104</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>0.85577996499655973</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>7.4000000000000001E-9</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>6.4768044691868853E-104</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>0.85577996482503205</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>7.4999999999999993E-9</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>6.0308589198756937E-104</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>0.85577996465350392</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>7.6000000000000002E-9</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>5.6209266328503821E-104</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>0.85577996448197624</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>7.6999999999999995E-9</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>5.2436814405650107E-104</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>0.85577996431044856</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>7.8000000000000004E-9</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>4.8961420038608524E-104</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>0.85577996413892077</v>
+      </c>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>7.8999999999999996E-9</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>4.5756322589482221E-104</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>0.85577996396739309</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>4.2797468269539261E-104</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>0.85577996379586496</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>8.0999999999999997E-9</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>4.0063207112748231E-104</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>0.85577996362433728</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>8.2000000000000006E-9</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>3.7534027066473233E-104</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>0.8557799634528096</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>8.2999999999999999E-9</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>3.5192320270943655E-104</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>0.85577996328128192</v>
+      </c>
+    </row>
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>8.4000000000000008E-9</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>3.3022177302965005E-104</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>0.85577996310975368</v>
+      </c>
+    </row>
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>8.5E-9</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>3.100920575591844E-104</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>0.855779962938226</v>
+      </c>
+    </row>
+    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>8.5999999999999993E-9</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>2.9140370034458781E-104</v>
+      </c>
+      <c r="J87">
+        <f>COS($B$14*H87+$B$15)</f>
+        <v>0.85577996276669832</v>
+      </c>
+    </row>
+    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>2.7403849673279513E-104</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ref="J88:J103" si="6">COS($B$14*H88+$B$15)</f>
+        <v>0.85577996259517064</v>
+      </c>
+    </row>
+    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>8.7999999999999994E-9</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>2.5788913856515527E-104</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>0.85577996242364296</v>
+      </c>
+    </row>
+    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>8.9000000000000003E-9</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>2.428581012812474E-104</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>0.85577996225211483</v>
+      </c>
+    </row>
+    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>8.9999999999999995E-9</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>2.2885665551875713E-104</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>0.85577996208058715</v>
+      </c>
+    </row>
+    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>9.1000000000000004E-9</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>2.1580398809708233E-104</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>0.85577996190905936</v>
+      </c>
+    </row>
+    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>9.1999999999999997E-9</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>2.0362641924720009E-104</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>0.85577996173753168</v>
+      </c>
+    </row>
+    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>9.3000000000000006E-9</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>1.922567046496834E-104</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>0.85577996156600356</v>
+      </c>
+    </row>
+    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>9.3999999999999998E-9</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>1.8163341230678492E-104</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>0.85577996139447587</v>
+      </c>
+    </row>
+    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <v>9.5000000000000007E-9</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>1.7170036553807538E-104</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>0.85577996122294819</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>9.5999999999999999E-9</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>1.6240614448125104E-104</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>0.85577996105142051</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>9.6999999999999992E-9</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>1.5370363942540913E-104</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>0.85577996087989283</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>9.8000000000000001E-9</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>1.4554965012414242E-104</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>0.8557799607083646</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <v>9.8999999999999993E-9</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>1.3790452594788627E-104</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>0.85577996053683691</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>1.3073184235434252E-104</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>0.85577996036530923</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <v>1.0099999999999999E-8</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>1.2399810969528589E-104</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>0.85577996019378155</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <v>1.02E-8</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>1.1767251084848002E-104</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>0.85577996002225343</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <v>1.03E-8</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>1.1172666457468889E-104</v>
+      </c>
+      <c r="J104">
+        <f>COS($B$14*H104+$B$15)</f>
+        <v>0.85577995985072575</v>
+      </c>
+    </row>
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>1.04E-8</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>1.0613441185888496E-104</v>
+      </c>
+      <c r="J105">
+        <f t="shared" ref="J105:J140" si="7">COS($B$14*H105+$B$15)</f>
+        <v>0.85577995967919795</v>
+      </c>
+    </row>
+    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>1.05E-8</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>1.0087162280988441E-104</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>0.85577995950767027</v>
+      </c>
+    </row>
+    <row r="107" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>1.0600000000000001E-8</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>9.5916021968599258E-105</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>0.85577995933614259</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>1.07E-8</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>9.1247030117443518E-105</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>0.85577995916461447</v>
+      </c>
+    </row>
+    <row r="109" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <v>1.0800000000000001E-8</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>8.6845620896756348E-105</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>0.85577995899308679</v>
+      </c>
+    </row>
+    <row r="110" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <v>1.09E-8</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>8.2694190721584817E-105</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="7"/>
+        <v>0.85577995882155911</v>
+      </c>
+    </row>
+    <row r="111" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>7.8776440657537501E-105</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="7"/>
+        <v>0.85577995865003131</v>
+      </c>
+    </row>
+    <row r="112" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <v>1.11E-8</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>7.50772690604109E-105</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="7"/>
+        <v>0.85577995847850363</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <v>1.1199999999999999E-8</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>7.1582673913079922E-105</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="7"/>
+        <v>0.85577995830697551</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <v>1.13E-8</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>6.8279663907233168E-105</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>0.85577995813544783</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <v>1.14E-8</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>6.515617741841586E-105</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="7"/>
+        <v>0.85577995796392015</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <v>1.15E-8</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>6.2201008612334502E-105</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>0.85577995779239246</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <v>1.16E-8</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>5.9403739999788419E-105</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="7"/>
+        <v>0.85577995762086423</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <v>1.1700000000000001E-8</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>5.6754680828061587E-105</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>0.85577995744933655</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>1.18E-8</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>5.4244810759428147E-105</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="7"/>
+        <v>0.85577995727780887</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <v>1.1900000000000001E-8</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>5.1865728343082823E-105</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="7"/>
+        <v>0.85577995710628119</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <v>1.2E-8</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>4.9609603836750108E-105</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="7"/>
+        <v>0.85577995693475351</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <v>1.2100000000000001E-8</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>4.7469135978411228E-105</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="7"/>
+        <v>0.85577995676322527</v>
+      </c>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <v>1.22E-8</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>4.5437512348332159E-105</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="7"/>
+        <v>0.85577995659169759</v>
+      </c>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <v>1.2299999999999999E-8</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>4.3508372996858257E-105</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="7"/>
+        <v>0.85577995642016991</v>
+      </c>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <v>1.24E-8</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>4.1675777045236293E-105</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="7"/>
+        <v>0.85577995624864223</v>
+      </c>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <v>1.2499999999999999E-8</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>3.99341719949284E-105</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="7"/>
+        <v>0.8557799560771141</v>
+      </c>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <v>1.26E-8</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>3.8278365506406488E-105</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="7"/>
+        <v>0.85577995590558642</v>
+      </c>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>1.27E-8</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>3.6703499431136831E-105</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="7"/>
+        <v>0.85577995573405863</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <v>1.28E-8</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="3"/>
+        <v>3.5205025900934534E-105</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="7"/>
+        <v>0.85577995556253095</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <v>1.29E-8</v>
+      </c>
+      <c r="I130">
+        <f t="shared" ref="I130:I193" si="8">(($B$10/H130)^$B$11 + ($B$12/H130)^$B$13)*COS($B$14*H130+$B$15)</f>
+        <v>3.3778685297265977E-105</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="7"/>
+        <v>0.85577995539100327</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <v>1.3000000000000001E-8</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="8"/>
+        <v>3.2420485939574567E-105</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="7"/>
+        <v>0.85577995521947514</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <v>1.31E-8</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="8"/>
+        <v>3.1126685346608429E-105</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="7"/>
+        <v>0.85577995504794746</v>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>1.3200000000000001E-8</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="8"/>
+        <v>2.9893772938120222E-105</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="7"/>
+        <v>0.85577995487641978</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <v>1.33E-8</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="8"/>
+        <v>2.8718454056393012E-105</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="7"/>
+        <v>0.85577995470489199</v>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <v>1.3399999999999999E-8</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="8"/>
+        <v>2.7597635197926921E-105</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="7"/>
+        <v>0.85577995453336386</v>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <v>1.35E-8</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="8"/>
+        <v>2.6528410355504783E-105</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="7"/>
+        <v>0.85577995436183618</v>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <v>1.3599999999999999E-8</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="8"/>
+        <v>2.5508048379698621E-105</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="7"/>
+        <v>0.8557799541903085</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <v>1.37E-8</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="8"/>
+        <v>2.4533981276970674E-105</v>
+      </c>
+      <c r="J138">
+        <f>COS($B$14*H138+$B$15)</f>
+        <v>0.85577995401878082</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <v>1.3799999999999999E-8</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="8"/>
+        <v>2.3603793368756216E-105</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="7"/>
+        <v>0.85577995384725303</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <v>1.39E-8</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="8"/>
+        <v>2.2715211242547745E-105</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="7"/>
+        <v>0.8557799536757249</v>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <v>1.4E-8</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="8"/>
+        <v>2.1866094431950543E-105</v>
+      </c>
+      <c r="J141">
+        <f>COS($B$14*H141+$B$15)</f>
+        <v>0.85577995350419722</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <v>1.4100000000000001E-8</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="8"/>
+        <v>2.1054426768106374E-105</v>
+      </c>
+      <c r="J142">
+        <f t="shared" ref="J142:J171" si="9">COS($B$14*H142+$B$15)</f>
+        <v>0.85577995333266954</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <v>1.42E-8</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="8"/>
+        <v>2.0278308349809066E-105</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="9"/>
+        <v>0.85577995316114186</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <v>1.4300000000000001E-8</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="8"/>
+        <v>1.9535948084088769E-105</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="9"/>
+        <v>0.85577995298961362</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <v>1.44E-8</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="8"/>
+        <v>1.8825656753121027E-105</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="9"/>
+        <v>0.85577995281808594</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <v>1.4500000000000001E-8</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="8"/>
+        <v>1.8145840566995666E-105</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="9"/>
+        <v>0.85577995264655826</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <v>1.46E-8</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="8"/>
+        <v>1.7494995165249652E-105</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="9"/>
+        <v>0.85577995247503058</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <v>1.4699999999999999E-8</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="8"/>
+        <v>1.6871700033129534E-105</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="9"/>
+        <v>0.8557799523035029</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <v>1.48E-8</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="8"/>
+        <v>1.6274613301342724E-105</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="9"/>
+        <v>0.85577995213197466</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <v>1.4899999999999999E-8</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="8"/>
+        <v>1.5702466900590391E-105</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="9"/>
+        <v>0.85577995196044698</v>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <v>1.4999999999999999E-8</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="8"/>
+        <v>1.515406204451576E-105</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="9"/>
+        <v>0.8557799517889193</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <v>1.51E-8</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="8"/>
+        <v>1.4628265016797725E-105</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="9"/>
+        <v>0.85577995161739162</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <v>1.52E-8</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="8"/>
+        <v>1.4124003240083423E-105</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="9"/>
+        <v>0.8557799514458635</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <v>1.5300000000000001E-8</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="8"/>
+        <v>1.3640261606205534E-105</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="9"/>
+        <v>0.8557799512743357</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <v>1.5399999999999999E-8</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="8"/>
+        <v>1.3176079048750783E-105</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="9"/>
+        <v>0.85577995110280802</v>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <v>1.55E-8</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="8"/>
+        <v>1.2730545340547545E-105</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="9"/>
+        <v>0.85577995093128034</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <v>1.5600000000000001E-8</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="8"/>
+        <v>1.230279809997275E-105</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="9"/>
+        <v>0.85577995075975266</v>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <v>1.5700000000000002E-8</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="8"/>
+        <v>1.1892019991241224E-105</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="9"/>
+        <v>0.85577995058822454</v>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <v>1.5799999999999999E-8</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="8"/>
+        <v>1.1497436104976286E-105</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="9"/>
+        <v>0.85577995041669674</v>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <v>1.59E-8</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="8"/>
+        <v>1.1118311506401288E-105</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="9"/>
+        <v>0.85577995024516906</v>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <v>1.6000000000000001E-8</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="8"/>
+        <v>1.0753948939469048E-105</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="9"/>
+        <v>0.85577995007364138</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <v>1.6099999999999999E-8</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="8"/>
+        <v>1.0403686676102589E-105</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="9"/>
+        <v>0.85577994990211326</v>
+      </c>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <v>1.6199999999999999E-8</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="8"/>
+        <v>1.0066896500560836E-105</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="9"/>
+        <v>0.85577994973058547</v>
+      </c>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <v>1.63E-8</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="8"/>
+        <v>9.7429818196635601E-106</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="9"/>
+        <v>0.85577994955905778</v>
+      </c>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <v>1.6400000000000001E-8</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="8"/>
+        <v>9.4313758903110392E-106</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="9"/>
+        <v>0.8557799493875301</v>
+      </c>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <v>1.6499999999999999E-8</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="8"/>
+        <v>9.1315401563632355E-106</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="9"/>
+        <v>0.85577994921600242</v>
+      </c>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <v>1.66E-8</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="8"/>
+        <v>8.8429626875135477E-106</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="9"/>
+        <v>0.8557799490444743</v>
+      </c>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <v>1.6700000000000001E-8</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="8"/>
+        <v>8.5651567133415813E-106</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="9"/>
+        <v>0.85577994887294651</v>
+      </c>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <v>1.6800000000000002E-8</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="8"/>
+        <v>8.2976592462178392E-106</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="9"/>
+        <v>0.85577994870141882</v>
+      </c>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <v>1.6899999999999999E-8</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="8"/>
+        <v>8.040029787182145E-106</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="9"/>
+        <v>0.85577994852989114</v>
+      </c>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <v>1.7E-8</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="8"/>
+        <v>7.7918491093494686E-106</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="9"/>
+        <v>0.85577994835836302</v>
+      </c>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <v>1.7100000000000001E-8</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="8"/>
+        <v>7.5527181137749535E-106</v>
+      </c>
+      <c r="J172">
+        <f>COS($B$14*H172+$B$15)</f>
+        <v>0.85577994818683534</v>
+      </c>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <v>1.7199999999999999E-8</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="8"/>
+        <v>7.3222567530699029E-106</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ref="J173:J198" si="10">COS($B$14*H173+$B$15)</f>
+        <v>0.85577994801530755</v>
+      </c>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <v>1.7299999999999999E-8</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="8"/>
+        <v>7.1001030183967648E-106</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="10"/>
+        <v>0.85577994784377986</v>
+      </c>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <v>1.74E-8</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="8"/>
+        <v>6.8859119857702149E-106</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="10"/>
+        <v>0.85577994767225218</v>
+      </c>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <v>1.7500000000000001E-8</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="8"/>
+        <v>6.679354917877255E-106</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="10"/>
+        <v>0.85577994750072406</v>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <v>1.7599999999999999E-8</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="8"/>
+        <v>6.4801184178929254E-106</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="10"/>
+        <v>0.85577994732919627</v>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <v>1.77E-8</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="8"/>
+        <v>6.2879036320044216E-106</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="10"/>
+        <v>0.85577994715766859</v>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <v>1.7800000000000001E-8</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="8"/>
+        <v>6.1024254975904473E-106</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="10"/>
+        <v>0.8557799469861409</v>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <v>1.7900000000000001E-8</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="8"/>
+        <v>5.9234120341989022E-106</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="10"/>
+        <v>0.85577994681461322</v>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <v>1.7999999999999999E-8</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="8"/>
+        <v>5.7506036746687381E-106</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="10"/>
+        <v>0.8557799466430851</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <v>1.81E-8</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="8"/>
+        <v>5.5837526339164625E-106</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="10"/>
+        <v>0.85577994647155731</v>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="1">
+        <v>1.8200000000000001E-8</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="8"/>
+        <v>5.4226223130696649E-106</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="10"/>
+        <v>0.85577994630002963</v>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H184" s="1">
+        <v>1.8299999999999998E-8</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="8"/>
+        <v>5.2669867367937082E-106</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="10"/>
+        <v>0.85577994612850194</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H185" s="1">
+        <v>1.8399999999999999E-8</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="8"/>
+        <v>5.1166300217879005E-106</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="10"/>
+        <v>0.85577994595697382</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H186" s="1">
+        <v>1.85E-8</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="8"/>
+        <v>4.9713458745728683E-106</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="10"/>
+        <v>0.85577994578544603</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H187" s="1">
+        <v>1.8600000000000001E-8</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="8"/>
+        <v>4.8309371168049446E-106</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="10"/>
+        <v>0.85577994561391835</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H188" s="1">
+        <v>1.8699999999999999E-8</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="8"/>
+        <v>4.6952152364703454E-106</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="10"/>
+        <v>0.85577994544239067</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H189" s="1">
+        <v>1.88E-8</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="8"/>
+        <v>4.5639999634224987E-106</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="10"/>
+        <v>0.85577994527086299</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H190" s="1">
+        <v>1.89E-8</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="8"/>
+        <v>4.4371188678194697E-106</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="10"/>
+        <v>0.85577994509933475</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H191" s="1">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="8"/>
+        <v>4.3144069801141098E-106</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="10"/>
+        <v>0.85577994492780707</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H192" s="1">
+        <v>1.9099999999999999E-8</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="8"/>
+        <v>4.1957064313337513E-106</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="10"/>
+        <v>0.85577994475627939</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H193" s="1">
+        <v>1.92E-8</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="8"/>
+        <v>4.0808661124690956E-106</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="10"/>
+        <v>0.85577994458475171</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H194" s="1">
+        <v>1.9300000000000001E-8</v>
+      </c>
+      <c r="I194">
+        <f t="shared" ref="I194:I257" si="11">(($B$10/H194)^$B$11 + ($B$12/H194)^$B$13)*COS($B$14*H194+$B$15)</f>
+        <v>3.9697413518626741E-106</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="10"/>
+        <v>0.85577994441322347</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H195" s="1">
+        <v>1.9399999999999998E-8</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="11"/>
+        <v>3.8621936095589752E-106</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="10"/>
+        <v>0.85577994424169579</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H196" s="1">
+        <v>1.9499999999999999E-8</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="11"/>
+        <v>3.7580901876446026E-106</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="10"/>
+        <v>0.85577994407016811</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H197" s="1">
+        <v>1.96E-8</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="11"/>
+        <v>3.6573039556629171E-106</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="10"/>
+        <v>0.85577994389864043</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H198" s="1">
+        <v>1.9700000000000001E-8</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="11"/>
+        <v>3.5597130902496504E-106</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="10"/>
+        <v>0.85577994372711275</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H199" s="1">
+        <v>1.9799999999999999E-8</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="11"/>
+        <v>3.4652008281830585E-106</v>
+      </c>
+      <c r="J199">
+        <f>COS($B$14*H199+$B$15)</f>
+        <v>0.85577994355558451</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H200" s="1">
+        <v>1.99E-8</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="11"/>
+        <v>3.3736552320966526E-106</v>
+      </c>
+      <c r="J200">
+        <f t="shared" ref="J200:J234" si="12">COS($B$14*H200+$B$15)</f>
+        <v>0.85577994338405683</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H201" s="1">
+        <v>2E-8</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="11"/>
+        <v>3.2849689681436386E-106</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="12"/>
+        <v>0.85577994321252915</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H202" s="1">
+        <v>2.0100000000000001E-8</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="11"/>
+        <v>3.1990390949492523E-106</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="12"/>
+        <v>0.85577994304100147</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H203" s="1">
+        <v>2.0199999999999999E-8</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="11"/>
+        <v>3.1157668632236757E-106</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="12"/>
+        <v>0.85577994286947323</v>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H204" s="1">
+        <v>2.03E-8</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="11"/>
+        <v>3.0350575254503788E-106</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="12"/>
+        <v>0.85577994269794555</v>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H205" s="1">
+        <v>2.0400000000000001E-8</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="11"/>
+        <v>2.9568201550936565E-106</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="12"/>
+        <v>0.85577994252641787</v>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H206" s="1">
+        <v>2.0500000000000002E-8</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="11"/>
+        <v>2.8809674748084282E-106</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="12"/>
+        <v>0.85577994235489019</v>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H207" s="1">
+        <v>2.0599999999999999E-8</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="11"/>
+        <v>2.8074156931605905E-106</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="12"/>
+        <v>0.8557799421833624</v>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H208" s="1">
+        <v>2.07E-8</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="11"/>
+        <v>2.736084349399379E-106</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="12"/>
+        <v>0.85577994201183427</v>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H209" s="1">
+        <v>2.0800000000000001E-8</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="11"/>
+        <v>2.6668961658483633E-106</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="12"/>
+        <v>0.85577994184030659</v>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H210" s="1">
+        <v>2.0899999999999999E-8</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="11"/>
+        <v>2.5997769075043091E-106</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="12"/>
+        <v>0.85577994166877891</v>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H211" s="1">
+        <v>2.0999999999999999E-8</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="11"/>
+        <v>2.5346552484632092E-106</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="12"/>
+        <v>0.85577994149725112</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H212" s="1">
+        <v>2.11E-8</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="11"/>
+        <v>2.471462644807874E-106</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="12"/>
+        <v>0.85577994132572299</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H213" s="1">
+        <v>2.1200000000000001E-8</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="11"/>
+        <v>2.4101332136184421E-106</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="12"/>
+        <v>0.85577994115419531</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H214" s="1">
+        <v>2.1299999999999999E-8</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="11"/>
+        <v>2.3506036177815224E-106</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="12"/>
+        <v>0.85577994098266763</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H215" s="1">
+        <v>2.14E-8</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="11"/>
+        <v>2.2928129562963295E-106</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="12"/>
+        <v>0.85577994081113984</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H216" s="1">
+        <v>2.1500000000000001E-8</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="11"/>
+        <v>2.2367026597896155E-106</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="12"/>
+        <v>0.85577994063961216</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H217" s="1">
+        <v>2.1600000000000002E-8</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="11"/>
+        <v>2.1822163909717383E-106</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="12"/>
+        <v>0.85577994046808403</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H218" s="1">
+        <v>2.1699999999999999E-8</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="11"/>
+        <v>2.1292999497755264E-106</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="12"/>
+        <v>0.85577994029655635</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H219" s="1">
+        <v>2.18E-8</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="11"/>
+        <v>2.0779011829408822E-106</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="12"/>
+        <v>0.85577994012502856</v>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H220" s="1">
+        <v>2.1900000000000001E-8</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="11"/>
+        <v>2.027969897814933E-106</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="12"/>
+        <v>0.85577993995350088</v>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H221" s="1">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="11"/>
+        <v>1.9794577801537643E-106</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="12"/>
+        <v>0.85577993978197275</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H222" s="1">
+        <v>2.2099999999999999E-8</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="11"/>
+        <v>1.9323183157241706E-106</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="12"/>
+        <v>0.85577993961044496</v>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H223" s="1">
+        <v>2.22E-8</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="11"/>
+        <v>1.8865067155115403E-106</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="12"/>
+        <v>0.85577993943891728</v>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H224" s="1">
+        <v>2.2300000000000001E-8</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="11"/>
+        <v>1.8419798443545734E-106</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="12"/>
+        <v>0.8557799392673896</v>
+      </c>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H225" s="1">
+        <v>2.2399999999999999E-8</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="11"/>
+        <v>1.798696152833827E-106</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="12"/>
+        <v>0.85577993909586192</v>
+      </c>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H226" s="1">
+        <v>2.25E-8</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="11"/>
+        <v>1.7566156122535707E-106</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="12"/>
+        <v>0.85577993892433368</v>
+      </c>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H227" s="1">
+        <v>2.26000000000001E-8</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="11"/>
+        <v>1.7156996525617288E-106</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="12"/>
+        <v>0.855779938752806</v>
+      </c>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H228" s="1">
+        <v>2.2700000000000101E-8</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="11"/>
+        <v>1.6759111030651817E-106</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="12"/>
+        <v>0.85577993858127832</v>
+      </c>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H229" s="1">
+        <v>2.2799999999999999E-8</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="11"/>
+        <v>1.6372141358004126E-106</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="12"/>
+        <v>0.85577993840975064</v>
+      </c>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H230" s="1">
+        <v>2.29E-8</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="11"/>
+        <v>1.5995742114316938E-106</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="12"/>
+        <v>0.8557799382382224</v>
+      </c>
+    </row>
+    <row r="231" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H231" s="1">
+        <v>2.3000000000000001E-8</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="11"/>
+        <v>1.5629580275525089E-106</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="12"/>
+        <v>0.85577993806669472</v>
+      </c>
+    </row>
+    <row r="232" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H232" s="1">
+        <v>2.3100000000000101E-8</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="11"/>
+        <v>1.5273334692739706E-106</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="12"/>
+        <v>0.85577993789516704</v>
+      </c>
+    </row>
+    <row r="233" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H233" s="1">
+        <v>2.3200000000000099E-8</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="11"/>
+        <v>1.4926695619897512E-106</v>
+      </c>
+      <c r="J233">
+        <f>COS($B$14*H233+$B$15)</f>
+        <v>0.85577993772363936</v>
+      </c>
+    </row>
+    <row r="234" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H234" s="1">
+        <v>2.3300000000000099E-8</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="11"/>
+        <v>1.4589364262120798E-106</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="12"/>
+        <v>0.85577993755211157</v>
+      </c>
+    </row>
+    <row r="235" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H235" s="1">
+        <v>2.34000000000001E-8</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="11"/>
+        <v>1.4261052343811169E-106</v>
+      </c>
+    </row>
+    <row r="236" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H236" s="1">
+        <v>2.3500000000000101E-8</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="11"/>
+        <v>1.394148169551993E-106</v>
+      </c>
+    </row>
+    <row r="237" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H237" s="1">
+        <v>2.3600000000000099E-8</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="11"/>
+        <v>1.3630383858714119E-106</v>
+      </c>
+    </row>
+    <row r="238" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H238" s="1">
+        <v>2.37000000000001E-8</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="11"/>
+        <v>1.3327499707581981E-106</v>
+      </c>
+    </row>
+    <row r="239" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H239" s="1">
+        <v>2.3800000000000101E-8</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="11"/>
+        <v>1.3032579087086538E-106</v>
+      </c>
+    </row>
+    <row r="240" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H240" s="1">
+        <v>2.3900000000000102E-8</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="11"/>
+        <v>1.2745380466496976E-106</v>
+      </c>
+    </row>
+    <row r="241" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H241" s="1">
+        <v>2.4000000000000099E-8</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="11"/>
+        <v>1.2465670607672392E-106</v>
+      </c>
+    </row>
+    <row r="242" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H242" s="1">
+        <v>2.41000000000001E-8</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="11"/>
+        <v>1.2193224247421853E-106</v>
+      </c>
+    </row>
+    <row r="243" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H243" s="1">
+        <v>2.4200000000000101E-8</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="11"/>
+        <v>1.1927823793278293E-106</v>
+      </c>
+    </row>
+    <row r="244" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H244" s="1">
+        <v>2.4300000000000098E-8</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="11"/>
+        <v>1.16692590320753E-106</v>
+      </c>
+    </row>
+    <row r="245" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H245" s="1">
+        <v>2.4400000000000099E-8</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="11"/>
+        <v>1.141732685072788E-106</v>
+      </c>
+    </row>
+    <row r="246" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H246" s="1">
+        <v>2.45000000000001E-8</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="11"/>
+        <v>1.1171830968673688E-106</v>
+      </c>
+    </row>
+    <row r="247" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H247" s="1">
+        <v>2.4600000000000101E-8</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="11"/>
+        <v>1.0932581681426091E-106</v>
+      </c>
+    </row>
+    <row r="248" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H248" s="1">
+        <v>2.4700000000000099E-8</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="11"/>
+        <v>1.0699395614749771E-106</v>
+      </c>
+    </row>
+    <row r="249" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H249" s="1">
+        <v>2.48000000000001E-8</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="11"/>
+        <v>1.047209548896604E-106</v>
+      </c>
+    </row>
+    <row r="250" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H250" s="1">
+        <v>2.4900000000000101E-8</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="11"/>
+        <v>1.0250509892940438E-106</v>
+      </c>
+    </row>
+    <row r="251" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H251" s="1">
+        <v>2.5000000000000101E-8</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="11"/>
+        <v>1.0034473067315076E-106</v>
+      </c>
+    </row>
+    <row r="252" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H252" s="1">
+        <v>2.5100000000000099E-8</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="11"/>
+        <v>9.8238246965704766E-107</v>
+      </c>
+    </row>
+    <row r="253" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H253" s="1">
+        <v>2.52000000000001E-8</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="11"/>
+        <v>9.6184097095254755E-107</v>
+      </c>
+    </row>
+    <row r="254" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H254" s="1">
+        <v>2.5300000000000101E-8</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="11"/>
+        <v>9.4180780879051212E-107</v>
+      </c>
+    </row>
+    <row r="255" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H255" s="1">
+        <v>2.5400000000000098E-8</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="11"/>
+        <v>9.2226846826091638E-107</v>
+      </c>
+    </row>
+    <row r="256" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H256" s="1">
+        <v>2.5500000000000099E-8</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="11"/>
+        <v>9.0320890373590278E-107</v>
+      </c>
+    </row>
+    <row r="257" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H257" s="1">
+        <v>2.56000000000001E-8</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="11"/>
+        <v>8.8461552193818503E-107</v>
+      </c>
+    </row>
+    <row r="258" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H258" s="1">
+        <v>2.5700000000000101E-8</v>
+      </c>
+      <c r="I258">
+        <f t="shared" ref="I258:I321" si="13">(($B$10/H258)^$B$11 + ($B$12/H258)^$B$13)*COS($B$14*H258+$B$15)</f>
+        <v>8.6647516568382811E-107</v>
+      </c>
+    </row>
+    <row r="259" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H259" s="1">
+        <v>2.5800000000000099E-8</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="13"/>
+        <v>8.4877509826928002E-107</v>
+      </c>
+    </row>
+    <row r="260" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H260" s="1">
+        <v>2.59000000000001E-8</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="13"/>
+        <v>8.3150298847518473E-107</v>
+      </c>
+    </row>
+    <row r="261" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H261" s="1">
+        <v>2.60000000000001E-8</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="13"/>
+        <v>8.1464689616004682E-107</v>
+      </c>
+    </row>
+    <row r="262" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H262" s="1">
+        <v>2.6100000000000101E-8</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="13"/>
+        <v>7.9819525841864058E-107</v>
+      </c>
+    </row>
+    <row r="263" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H263" s="1">
+        <v>2.6200000000000099E-8</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="13"/>
+        <v>7.821368762807172E-107</v>
+      </c>
+    </row>
+    <row r="264" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H264" s="1">
+        <v>2.63000000000001E-8</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="13"/>
+        <v>7.664609019273511E-107</v>
+      </c>
+    </row>
+    <row r="265" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H265" s="1">
+        <v>2.6400000000000101E-8</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="13"/>
+        <v>7.5115682640229968E-107</v>
+      </c>
+    </row>
+    <row r="266" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H266" s="1">
+        <v>2.6500000000000102E-8</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="13"/>
+        <v>7.3621446779812488E-107</v>
+      </c>
+    </row>
+    <row r="267" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H267" s="1">
+        <v>2.6600000000000099E-8</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="13"/>
+        <v>7.216239598966168E-107</v>
+      </c>
+    </row>
+    <row r="268" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H268" s="1">
+        <v>2.67000000000001E-8</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="13"/>
+        <v>7.0737574124428416E-107</v>
+      </c>
+    </row>
+    <row r="269" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H269" s="1">
+        <v>2.6800000000000101E-8</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="13"/>
+        <v>6.9346054464534479E-107</v>
+      </c>
+    </row>
+    <row r="270" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H270" s="1">
+        <v>2.6900000000000099E-8</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="13"/>
+        <v>6.7986938705388795E-107</v>
+      </c>
+    </row>
+    <row r="271" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H271" s="1">
+        <v>2.7000000000000099E-8</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="13"/>
+        <v>6.6659355984956471E-107</v>
+      </c>
+    </row>
+    <row r="272" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H272" s="1">
+        <v>2.71000000000001E-8</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="13"/>
+        <v>6.5362461948002209E-107</v>
+      </c>
+    </row>
+    <row r="273" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H273" s="1">
+        <v>2.7200000000000101E-8</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="13"/>
+        <v>6.40954378455711E-107</v>
+      </c>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H274" s="1">
+        <v>2.7300000000000099E-8</v>
+      </c>
+      <c r="I274">
+        <f t="shared" si="13"/>
+        <v>6.2857489668204355E-107</v>
+      </c>
+    </row>
+    <row r="275" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H275" s="1">
+        <v>2.74000000000001E-8</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="13"/>
+        <v>6.1647847311548318E-107</v>
+      </c>
+    </row>
+    <row r="276" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H276" s="1">
+        <v>2.7500000000000101E-8</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="13"/>
+        <v>6.0465763772978131E-107</v>
+      </c>
+    </row>
+    <row r="277" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H277" s="1">
+        <v>2.7600000000000102E-8</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="13"/>
+        <v>5.9310514378057498E-107</v>
+      </c>
+    </row>
+    <row r="278" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H278" s="1">
+        <v>2.7700000000000099E-8</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="13"/>
+        <v>5.8181396035533284E-107</v>
+      </c>
+    </row>
+    <row r="279" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H279" s="1">
+        <v>2.78000000000001E-8</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="13"/>
+        <v>5.7077726519797123E-107</v>
+      </c>
+    </row>
+    <row r="280" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H280" s="1">
+        <v>2.7900000000000101E-8</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="13"/>
+        <v>5.5998843779640964E-107</v>
+      </c>
+    </row>
+    <row r="281" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H281" s="1">
+        <v>2.8000000000000099E-8</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="13"/>
+        <v>5.4944105272288355E-107</v>
+      </c>
+    </row>
+    <row r="282" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H282" s="1">
+        <v>2.8100000000000099E-8</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="13"/>
+        <v>5.3912887321691812E-107</v>
+      </c>
+    </row>
+    <row r="283" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H283" s="1">
+        <v>2.82000000000001E-8</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="13"/>
+        <v>5.2904584500116593E-107</v>
+      </c>
+    </row>
+    <row r="284" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H284" s="1">
+        <v>2.8300000000000101E-8</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="13"/>
+        <v>5.1918609032088381E-107</v>
+      </c>
+    </row>
+    <row r="285" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H285" s="1">
+        <v>2.8400000000000099E-8</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="13"/>
+        <v>5.0954390219827028E-107</v>
+      </c>
+    </row>
+    <row r="286" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H286" s="1">
+        <v>2.85000000000001E-8</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="13"/>
+        <v>5.0011373889326862E-107</v>
+      </c>
+    </row>
+    <row r="287" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H287" s="1">
+        <v>2.8600000000000101E-8</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="13"/>
+        <v>4.9089021856243448E-107</v>
+      </c>
+    </row>
+    <row r="288" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H288" s="1">
+        <v>2.8700000000000101E-8</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="13"/>
+        <v>4.8186811410858089E-107</v>
+      </c>
+    </row>
+    <row r="289" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H289" s="1">
+        <v>2.8800000000000099E-8</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="13"/>
+        <v>4.7304234821320767E-107</v>
+      </c>
+    </row>
+    <row r="290" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H290" s="1">
+        <v>2.89000000000001E-8</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="13"/>
+        <v>4.6440798854520657E-107</v>
+      </c>
+    </row>
+    <row r="291" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H291" s="1">
+        <v>2.9000000000000101E-8</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="13"/>
+        <v>4.5596024313843989E-107</v>
+      </c>
+    </row>
+    <row r="292" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H292" s="1">
+        <v>2.9100000000000098E-8</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="13"/>
+        <v>4.4769445593210916E-107</v>
+      </c>
+    </row>
+    <row r="293" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H293" s="1">
+        <v>2.9200000000000099E-8</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="13"/>
+        <v>4.3960610246751932E-107</v>
+      </c>
+    </row>
+    <row r="294" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H294" s="1">
+        <v>2.93000000000001E-8</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="13"/>
+        <v>4.3169078573505589E-107</v>
+      </c>
+    </row>
+    <row r="295" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H295" s="1">
+        <v>2.9400000000000101E-8</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="13"/>
+        <v>4.2394423216593931E-107</v>
+      </c>
+    </row>
+    <row r="296" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H296" s="1">
+        <v>2.9500000000000099E-8</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="13"/>
+        <v>4.163622877630935E-107</v>
+      </c>
+    </row>
+    <row r="297" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H297" s="1">
+        <v>2.96000000000001E-8</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="13"/>
+        <v>4.0894091436572526E-107</v>
+      </c>
+    </row>
+    <row r="298" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H298" s="1">
+        <v>2.9700000000000101E-8</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="13"/>
+        <v>4.0167618604292827E-107</v>
+      </c>
+    </row>
+    <row r="299" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H299" s="1">
+        <v>2.9800000000000101E-8</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="13"/>
+        <v>3.9456428561090877E-107</v>
+      </c>
+    </row>
+    <row r="300" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H300" s="1">
+        <v>2.9900000000000102E-8</v>
+      </c>
+      <c r="I300">
+        <f t="shared" si="13"/>
+        <v>3.876015012697946E-107</v>
+      </c>
+    </row>
+    <row r="301" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H301" s="1">
+        <v>3.0000000000000103E-8</v>
+      </c>
+      <c r="I301">
+        <f t="shared" si="13"/>
+        <v>3.8078422335501426E-107</v>
+      </c>
+    </row>
+    <row r="302" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H302" s="1">
+        <v>3.0100000000000097E-8</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="13"/>
+        <v>3.7410894119935451E-107</v>
+      </c>
+    </row>
+    <row r="303" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H303" s="1">
+        <v>3.0200000000000098E-8</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="13"/>
+        <v>3.6757224010126276E-107</v>
+      </c>
+    </row>
+    <row r="304" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H304" s="1">
+        <v>3.0300000000000099E-8</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="13"/>
+        <v>3.6117079839587568E-107</v>
+      </c>
+    </row>
+    <row r="305" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H305" s="1">
+        <v>3.04000000000001E-8</v>
+      </c>
+      <c r="I305">
+        <f t="shared" si="13"/>
+        <v>3.5490138462443404E-107</v>
+      </c>
+    </row>
+    <row r="306" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H306" s="1">
+        <v>3.0500000000000101E-8</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="13"/>
+        <v>3.4876085479891183E-107</v>
+      </c>
+    </row>
+    <row r="307" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H307" s="1">
+        <v>3.0600000000000102E-8</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="13"/>
+        <v>3.4274614975822449E-107</v>
+      </c>
+    </row>
+    <row r="308" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H308" s="1">
+        <v>3.0700000000000103E-8</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="13"/>
+        <v>3.3685429261252749E-107</v>
+      </c>
+    </row>
+    <row r="309" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H309" s="1">
+        <v>3.0800000000000097E-8</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="13"/>
+        <v>3.3108238627254431E-107</v>
+      </c>
+    </row>
+    <row r="310" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H310" s="1">
+        <v>3.0900000000000098E-8</v>
+      </c>
+      <c r="I310">
+        <f t="shared" si="13"/>
+        <v>3.2542761106085584E-107</v>
+      </c>
+    </row>
+    <row r="311" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H311" s="1">
+        <v>3.1000000000000099E-8</v>
+      </c>
+      <c r="I311">
+        <f t="shared" si="13"/>
+        <v>3.1988722240202308E-107</v>
+      </c>
+    </row>
+    <row r="312" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H312" s="1">
+        <v>3.11000000000001E-8</v>
+      </c>
+      <c r="I312">
+        <f t="shared" si="13"/>
+        <v>3.1445854858889541E-107</v>
+      </c>
+    </row>
+    <row r="313" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H313" s="1">
+        <v>3.1200000000000101E-8</v>
+      </c>
+      <c r="I313">
+        <f t="shared" si="13"/>
+        <v>3.0913898862209408E-107</v>
+      </c>
+    </row>
+    <row r="314" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H314" s="1">
+        <v>3.1300000000000102E-8</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="13"/>
+        <v>3.03926010120343E-107</v>
+      </c>
+    </row>
+    <row r="315" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H315" s="1">
+        <v>3.1400000000000102E-8</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="13"/>
+        <v>2.9881714729898127E-107</v>
+      </c>
+    </row>
+    <row r="316" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H316" s="1">
+        <v>3.1500000000000097E-8</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="13"/>
+        <v>2.9380999901405779E-107</v>
+      </c>
+    </row>
+    <row r="317" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H317" s="1">
+        <v>3.1600000000000098E-8</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="13"/>
+        <v>2.8890222687003854E-107</v>
+      </c>
+    </row>
+    <row r="318" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H318" s="1">
+        <v>3.1700000000000099E-8</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="13"/>
+        <v>2.8409155338846397E-107</v>
+      </c>
+    </row>
+    <row r="319" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H319" s="1">
+        <v>3.1800000000000099E-8</v>
+      </c>
+      <c r="I319">
+        <f t="shared" si="13"/>
+        <v>2.7937576023580039E-107</v>
+      </c>
+    </row>
+    <row r="320" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H320" s="1">
+        <v>3.19000000000001E-8</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="13"/>
+        <v>2.7475268650805572E-107</v>
+      </c>
+    </row>
+    <row r="321" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H321" s="1">
+        <v>3.2000000000000101E-8</v>
+      </c>
+      <c r="I321">
+        <f t="shared" si="13"/>
+        <v>2.7022022707037088E-107</v>
+      </c>
+    </row>
+    <row r="322" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H322" s="1">
+        <v>3.2100000000000102E-8</v>
+      </c>
+      <c r="I322">
+        <f t="shared" ref="I322:I338" si="14">(($B$10/H322)^$B$11 + ($B$12/H322)^$B$13)*COS($B$14*H322+$B$15)</f>
+        <v>2.6577633094965409E-107</v>
+      </c>
+    </row>
+    <row r="323" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H323" s="1">
+        <v>3.2200000000000103E-8</v>
+      </c>
+      <c r="I323">
+        <f t="shared" si="14"/>
+        <v>2.6141899977821893E-107</v>
+      </c>
+    </row>
+    <row r="324" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H324" s="1">
+        <v>3.2300000000000097E-8</v>
+      </c>
+      <c r="I324">
+        <f t="shared" si="14"/>
+        <v>2.5714628628698886E-107</v>
+      </c>
+    </row>
+    <row r="325" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H325" s="1">
+        <v>3.2400000000000098E-8</v>
+      </c>
+      <c r="I325">
+        <f t="shared" si="14"/>
+        <v>2.5295629284617563E-107</v>
+      </c>
+    </row>
+    <row r="326" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H326" s="1">
+        <v>3.2500000000000099E-8</v>
+      </c>
+      <c r="I326">
+        <f t="shared" si="14"/>
+        <v>2.4884717005203162E-107</v>
+      </c>
+    </row>
+    <row r="327" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H327" s="1">
+        <v>3.26000000000001E-8</v>
+      </c>
+      <c r="I327">
+        <f t="shared" si="14"/>
+        <v>2.4481711535808048E-107</v>
+      </c>
+    </row>
+    <row r="328" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H328" s="1">
+        <v>3.2700000000000101E-8</v>
+      </c>
+      <c r="I328">
+        <f t="shared" si="14"/>
+        <v>2.4086437174912761E-107</v>
+      </c>
+    </row>
+    <row r="329" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H329" s="1">
+        <v>3.2800000000000102E-8</v>
+      </c>
+      <c r="I329">
+        <f t="shared" si="14"/>
+        <v>2.3698722645678025E-107</v>
+      </c>
+    </row>
+    <row r="330" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H330" s="1">
+        <v>3.2900000000000103E-8</v>
+      </c>
+      <c r="I330">
+        <f t="shared" si="14"/>
+        <v>2.331840097149337E-107</v>
+      </c>
+    </row>
+    <row r="331" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H331" s="1">
+        <v>3.3000000000000097E-8</v>
+      </c>
+      <c r="I331">
+        <f t="shared" si="14"/>
+        <v>2.2945309355390755E-107</v>
+      </c>
+    </row>
+    <row r="332" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H332" s="1">
+        <v>3.3100000000000098E-8</v>
+      </c>
+      <c r="I332">
+        <f t="shared" si="14"/>
+        <v>2.257928906319134E-107</v>
+      </c>
+    </row>
+    <row r="333" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H333" s="1">
+        <v>3.3200000000000099E-8</v>
+      </c>
+      <c r="I333">
+        <f t="shared" si="14"/>
+        <v>2.2220185310263865E-107</v>
+      </c>
+    </row>
+    <row r="334" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H334" s="1">
+        <v>3.33000000000001E-8</v>
+      </c>
+      <c r="I334">
+        <f t="shared" si="14"/>
+        <v>2.1867847151756797E-107</v>
+      </c>
+    </row>
+    <row r="335" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H335" s="1">
+        <v>3.3400000000000101E-8</v>
+      </c>
+      <c r="I335">
+        <f t="shared" si="14"/>
+        <v>2.1522127376211702E-107</v>
+      </c>
+    </row>
+    <row r="336" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H336" s="1">
+        <v>3.3500000000000101E-8</v>
+      </c>
+      <c r="I336">
+        <f t="shared" si="14"/>
+        <v>2.1182882402421365E-107</v>
+      </c>
+    </row>
+    <row r="337" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H337" s="1">
+        <v>3.3600000000000102E-8</v>
+      </c>
+      <c r="I337">
+        <f t="shared" si="14"/>
+        <v>2.0849972179437785E-107</v>
+      </c>
+    </row>
+    <row r="338" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H338" s="1">
+        <v>3.3700000000000203E-8</v>
+      </c>
+      <c r="I338">
+        <f t="shared" si="14"/>
+        <v>2.0523260089622279E-107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>